--- a/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
+++ b/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgen\Учеба Евгена\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1F0FC-6540-4BF2-91F0-E3921983F0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFDAAF0-39D7-45A4-AEF4-63C7D3F6E582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="870" windowWidth="13380" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -391,15 +391,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +404,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3246,31 +3246,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:AA38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3557,14 +3557,14 @@
         <f t="shared" si="6"/>
         <v>-2.1540672408101784</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
       <c r="O7">
         <f t="shared" si="2"/>
         <v>273.85062678596353</v>
@@ -3577,19 +3577,19 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3640,17 +3640,17 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="12">
         <v>1</v>
       </c>
       <c r="K9">
@@ -3687,11 +3687,11 @@
         <f>K9/J9</f>
         <v>8209.8159583729957</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <f>L9/L10</f>
         <v>241.58940429953691</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <f>FDIST(M9,J9,J10)</f>
         <v>2.4182541327899721E-22</v>
       </c>
@@ -3707,17 +3707,17 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3767,17 +3767,17 @@
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3826,17 +3826,17 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3878,17 +3878,17 @@
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3911,14 +3911,14 @@
         <f t="shared" si="6"/>
         <v>-10.826744651227983</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
       <c r="O13">
         <f t="shared" si="2"/>
         <v>156.14390173676983</v>
@@ -3931,17 +3931,17 @@
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3983,17 +3983,17 @@
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <f>K9/K11</f>
         <v>0.80640169789846716</v>
       </c>
@@ -4035,17 +4035,17 @@
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4087,17 +4087,17 @@
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4139,17 +4139,17 @@
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4190,17 +4190,17 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-    </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4235,17 +4235,17 @@
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4268,14 +4268,14 @@
         <f t="shared" si="6"/>
         <v>4.0951317032846077</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
       <c r="O20">
         <f t="shared" si="2"/>
         <v>60.336102278124024</v>
@@ -4288,17 +4288,17 @@
         <f t="shared" si="4"/>
         <v>361</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4351,17 +4351,17 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4384,22 +4384,22 @@
         <f t="shared" si="6"/>
         <v>9.6442392331453277</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="13">
         <f>F3</f>
         <v>217.37138983039239</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>1.5241714460861433</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="13">
         <f>I22/J22</f>
         <v>142.61610161282798</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="13">
         <f>TDIST(I22,1,2)</f>
         <v>2.9286985826749473E-3</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="13">
         <f>I22-J25*J22</f>
         <v>214.32042919792684</v>
       </c>
@@ -4419,17 +4419,17 @@
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4488,17 +4488,17 @@
         <f t="shared" si="4"/>
         <v>484</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4533,17 +4533,17 @@
         <f t="shared" si="4"/>
         <v>529</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4585,17 +4585,17 @@
         <f t="shared" si="4"/>
         <v>576</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4637,17 +4637,17 @@
         <f t="shared" si="4"/>
         <v>625</v>
       </c>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4682,17 +4682,17 @@
         <f t="shared" si="4"/>
         <v>676</v>
       </c>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4727,17 +4727,17 @@
         <f t="shared" si="4"/>
         <v>729</v>
       </c>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4772,17 +4772,17 @@
         <f t="shared" si="4"/>
         <v>784</v>
       </c>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4817,17 +4817,17 @@
         <f t="shared" si="4"/>
         <v>841</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4862,17 +4862,17 @@
         <f t="shared" si="4"/>
         <v>900</v>
       </c>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4907,17 +4907,17 @@
         <f t="shared" si="4"/>
         <v>961</v>
       </c>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4952,17 +4952,17 @@
         <f t="shared" si="4"/>
         <v>1024</v>
       </c>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4997,17 +4997,17 @@
         <f t="shared" si="4"/>
         <v>1089</v>
       </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5042,17 +5042,17 @@
         <f t="shared" si="4"/>
         <v>1156</v>
       </c>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5087,17 +5087,17 @@
         <f t="shared" si="4"/>
         <v>1225</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5132,17 +5132,17 @@
         <f t="shared" si="4"/>
         <v>1296</v>
       </c>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5177,17 +5177,17 @@
         <f t="shared" si="4"/>
         <v>1369</v>
       </c>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>1</v>
       </c>
@@ -6032,14 +6032,14 @@
         <v>73810</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>40</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -6063,249 +6063,249 @@
         <v>1.021405182655144E-14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="F66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C68"/>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C69"/>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="8">
         <v>0.89799871820424237</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C70"/>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="8">
         <v>0.80640169789646232</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C71"/>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="8">
         <v>0.80306379613605661</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72"/>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="8">
         <v>5.8294525187019461</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73"/>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75"/>
       <c r="F75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="J76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="K76" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77"/>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="8">
         <v>1</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="8">
         <v>8209.8159582675707</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="8">
         <v>8209.8159582675707</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="8">
         <v>241.58940429643454</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="8">
         <v>2.4182541335190837E-22</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78"/>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="8">
         <v>58</v>
       </c>
-      <c r="H78" s="11">
+      <c r="H78" s="8">
         <v>1970.9859667324267</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="8">
         <v>33.982516667800461</v>
       </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79"/>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="9">
         <v>59</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="9">
         <v>10180.801924999998</v>
       </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80"/>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13" t="s">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K81" s="13" t="s">
+      <c r="K81" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L81" s="13" t="s">
+      <c r="L81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M81" s="13" t="s">
+      <c r="M81" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N81" s="13" t="s">
+      <c r="N81" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C82"/>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="8">
         <v>217.37138983050852</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="8">
         <v>1.5241714460861433</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="8">
         <v>142.61610161290417</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="8">
         <v>1.5160848668268366E-75</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="8">
         <v>214.32042919804297</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="8">
         <v>220.42235046297407</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="8">
         <v>214.32042919804297</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N82" s="8">
         <v>220.42235046297407</v>
       </c>
     </row>
-    <row r="83" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83"/>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="9">
         <v>0.67544623506529589</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="9">
         <v>4.3456209681957146E-2</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="9">
         <v>15.543146537829291</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="9">
         <v>2.4182541335190494E-22</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="9">
         <v>0.58845918035024081</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="9">
         <v>0.76243328978035096</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="9">
         <v>0.58845918035024081</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="9">
         <v>0.76243328978035096</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C84"/>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87"/>
       <c r="F87" t="s">
         <v>49</v>
@@ -6314,1366 +6314,1366 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88"/>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89"/>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K89" s="13" t="s">
+      <c r="K89" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L89" s="13" t="s">
+      <c r="L89" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C90"/>
-      <c r="F90" s="11">
+      <c r="F90" s="8">
         <v>1</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="8">
         <v>218.04683606557381</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="8">
         <v>-12.386836065573817</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90" s="8">
         <v>-2.1431108236641392</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L90" s="8">
         <v>205.66</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91"/>
-      <c r="F91" s="11">
+      <c r="F91" s="8">
         <v>2</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="8">
         <v>218.72228230063911</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="8">
         <v>-0.21228230063911724</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I91" s="8">
         <v>-3.6728063063369662E-2</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="8">
         <v>2.5</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L91" s="8">
         <v>209.98</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C92"/>
-      <c r="F92" s="11">
+      <c r="F92" s="8">
         <v>3</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="8">
         <v>219.3977285357044</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="8">
         <v>0.56227146429560548</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="8">
         <v>9.7281505510388361E-2</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="8">
         <v>4.166666666666667</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92" s="8">
         <v>214.65</v>
       </c>
     </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C93"/>
-      <c r="F93" s="11">
+      <c r="F93" s="8">
         <v>4</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="8">
         <v>220.0731747707697</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="8">
         <v>-0.11317477076968885</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93" s="8">
         <v>-1.958095472631026E-2</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K93" s="8">
         <v>5.833333333333333</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L93" s="8">
         <v>214.65</v>
       </c>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C94"/>
-      <c r="F94" s="11">
+      <c r="F94" s="8">
         <v>5</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="8">
         <v>220.74862100583499</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="8">
         <v>-0.78862100583498318</v>
       </c>
-      <c r="I94" s="11">
+      <c r="I94" s="8">
         <v>-0.13644341496300888</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K94" s="8">
         <v>7.5</v>
       </c>
-      <c r="L94" s="11">
+      <c r="L94" s="8">
         <v>214.65</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C95"/>
-      <c r="F95" s="11">
+      <c r="F95" s="8">
         <v>6</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="8">
         <v>221.42406724090029</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="8">
         <v>-2.1540672409002752</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="8">
         <v>-0.37268635787502646</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="8">
         <v>9.1666666666666679</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95" s="8">
         <v>218.51</v>
       </c>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C96"/>
-      <c r="F96" s="11">
+      <c r="F96" s="8">
         <v>7</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="8">
         <v>222.09951347596558</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="8">
         <v>8.0486524034427021E-2</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="8">
         <v>1.3925391432012447E-2</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="8">
         <v>10.833333333333334</v>
       </c>
-      <c r="L96" s="11">
+      <c r="L96" s="8">
         <v>219.27</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97"/>
-      <c r="F97" s="11">
+      <c r="F97" s="8">
         <v>8</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="8">
         <v>222.77495971103087</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="8">
         <v>-0.66495971103086049</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="8">
         <v>-0.1150481322645</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="8">
         <v>12.500000000000002</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L97" s="8">
         <v>219.96</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98"/>
-      <c r="F98" s="11">
+      <c r="F98" s="8">
         <v>9</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="8">
         <v>223.45040594609617</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="8">
         <v>-13.470405946096179</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="8">
         <v>-2.3305848748948601</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="8">
         <v>14.166666666666668</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98" s="8">
         <v>219.96</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99"/>
-      <c r="F99" s="11">
+      <c r="F99" s="8">
         <v>10</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="8">
         <v>224.12585218116149</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="8">
         <v>-9.4758521811614855</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="8">
         <v>-1.6394663871696171</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="8">
         <v>15.833333333333334</v>
       </c>
-      <c r="L99" s="11">
+      <c r="L99" s="8">
         <v>219.96</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100"/>
-      <c r="F100" s="11">
+      <c r="F100" s="8">
         <v>11</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="8">
         <v>224.80129841622679</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="8">
         <v>-10.15129841622678</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100" s="8">
         <v>-1.7563288474063157</v>
       </c>
-      <c r="K100" s="11">
+      <c r="K100" s="8">
         <v>17.5</v>
       </c>
-      <c r="L100" s="11">
+      <c r="L100" s="8">
         <v>222.11</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101"/>
-      <c r="F101" s="11">
+      <c r="F101" s="8">
         <v>12</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="8">
         <v>225.47674465129208</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="8">
         <v>-10.826744651292074</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="8">
         <v>-1.8731913076430142</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="8">
         <v>19.166666666666668</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="8">
         <v>222.18</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102"/>
-      <c r="F102" s="11">
+      <c r="F102" s="8">
         <v>13</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="8">
         <v>226.15219088635737</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="8">
         <v>-2.4421908863573663</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="8">
         <v>-0.42253612579508459</v>
       </c>
-      <c r="K102" s="11">
+      <c r="K102" s="8">
         <v>20.833333333333332</v>
       </c>
-      <c r="L102" s="11">
+      <c r="L102" s="8">
         <v>223.71</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103"/>
-      <c r="F103" s="11">
+      <c r="F103" s="8">
         <v>14</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="8">
         <v>226.82763712142267</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="8">
         <v>10.582362878577328</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103" s="8">
         <v>1.8309095482462947</v>
       </c>
-      <c r="K103" s="11">
+      <c r="K103" s="8">
         <v>22.5</v>
       </c>
-      <c r="L103" s="11">
+      <c r="L103" s="8">
         <v>233.59</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104"/>
-      <c r="F104" s="11">
+      <c r="F104" s="8">
         <v>15</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="8">
         <v>227.50308335648796</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="8">
         <v>15.336916643512041</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="8">
         <v>2.6535195821066755</v>
       </c>
-      <c r="K104" s="11">
+      <c r="K104" s="8">
         <v>24.166666666666668</v>
       </c>
-      <c r="L104" s="11">
+      <c r="L104" s="8">
         <v>234.21</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105"/>
-      <c r="F105" s="11">
+      <c r="F105" s="8">
         <v>16</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="8">
         <v>228.17852959155326</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="8">
         <v>5.4114704084467462</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I105" s="8">
         <v>0.93626659325156536</v>
       </c>
-      <c r="K105" s="11">
+      <c r="K105" s="8">
         <v>25.833333333333332</v>
       </c>
-      <c r="L105" s="11">
+      <c r="L105" s="8">
         <v>234.21</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106"/>
-      <c r="F106" s="11">
+      <c r="F106" s="8">
         <v>17</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="8">
         <v>228.85397582661855</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="8">
         <v>5.4460241733814598</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="8">
         <v>0.94224491953584888</v>
       </c>
-      <c r="K106" s="11">
+      <c r="K106" s="8">
         <v>27.5</v>
       </c>
-      <c r="L106" s="11">
+      <c r="L106" s="8">
         <v>234.3</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107"/>
-      <c r="F107" s="11">
+      <c r="F107" s="8">
         <v>18</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="8">
         <v>229.52942206168385</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="8">
         <v>4.7705779383161655</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="8">
         <v>0.82538245929915022</v>
       </c>
-      <c r="K107" s="11">
+      <c r="K107" s="8">
         <v>29.166666666666668</v>
       </c>
-      <c r="L107" s="11">
+      <c r="L107" s="8">
         <v>234.3</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108"/>
-      <c r="F108" s="11">
+      <c r="F108" s="8">
         <v>19</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="8">
         <v>230.20486829674914</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="8">
         <v>4.0951317032508712</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="8">
         <v>0.70851999906245167</v>
       </c>
-      <c r="K108" s="11">
+      <c r="K108" s="8">
         <v>30.833333333333332</v>
       </c>
-      <c r="L108" s="11">
+      <c r="L108" s="8">
         <v>234.3</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109"/>
-      <c r="F109" s="11">
+      <c r="F109" s="8">
         <v>20</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="8">
         <v>230.88031453181443</v>
       </c>
-      <c r="H109" s="11">
+      <c r="H109" s="8">
         <v>4.7196854681855598</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="8">
         <v>0.81657728879374303</v>
       </c>
-      <c r="K109" s="11">
+      <c r="K109" s="8">
         <v>32.5</v>
       </c>
-      <c r="L109" s="11">
+      <c r="L109" s="8">
         <v>235.45</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110"/>
-      <c r="F110" s="11">
+      <c r="F110" s="8">
         <v>21</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="8">
         <v>231.55576076687973</v>
       </c>
-      <c r="H110" s="11">
+      <c r="H110" s="8">
         <v>9.6442392331202598</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="8">
         <v>1.668599905342244</v>
       </c>
-      <c r="K110" s="11">
+      <c r="K110" s="8">
         <v>34.166666666666671</v>
       </c>
-      <c r="L110" s="11">
+      <c r="L110" s="8">
         <v>235.45</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111"/>
-      <c r="F111" s="11">
+      <c r="F111" s="8">
         <v>22</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="8">
         <v>232.23120700194502</v>
       </c>
-      <c r="H111" s="11">
+      <c r="H111" s="8">
         <v>1.9787929980549848</v>
       </c>
-      <c r="I111" s="11">
+      <c r="I111" s="8">
         <v>0.34236125104687876</v>
       </c>
-      <c r="K111" s="11">
+      <c r="K111" s="8">
         <v>35.833333333333336</v>
       </c>
-      <c r="L111" s="11">
+      <c r="L111" s="8">
         <v>235.45</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112"/>
-      <c r="F112" s="11">
+      <c r="F112" s="8">
         <v>23</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="8">
         <v>232.90665323701032</v>
       </c>
-      <c r="H112" s="11">
+      <c r="H112" s="8">
         <v>1.3033467629896904</v>
       </c>
-      <c r="I112" s="11">
+      <c r="I112" s="8">
         <v>0.22549879081018012</v>
       </c>
-      <c r="K112" s="11">
+      <c r="K112" s="8">
         <v>37.500000000000007</v>
       </c>
-      <c r="L112" s="11">
+      <c r="L112" s="8">
         <v>235.58</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113"/>
-      <c r="F113" s="11">
+      <c r="F113" s="8">
         <v>24</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="8">
         <v>233.58209947207561</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="8">
         <v>1.8679005279243768</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113" s="8">
         <v>0.32317516900448684</v>
       </c>
-      <c r="K113" s="11">
+      <c r="K113" s="8">
         <v>39.166666666666671</v>
       </c>
-      <c r="L113" s="11">
+      <c r="L113" s="8">
         <v>235.6</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114"/>
-      <c r="F114" s="11">
+      <c r="F114" s="8">
         <v>25</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="8">
         <v>234.25754570714091</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="8">
         <v>1.1924542928590824</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114" s="8">
         <v>0.20631270876778823</v>
       </c>
-      <c r="K114" s="11">
+      <c r="K114" s="8">
         <v>40.833333333333336</v>
       </c>
-      <c r="L114" s="11">
+      <c r="L114" s="8">
         <v>236.08</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115"/>
-      <c r="F115" s="11">
+      <c r="F115" s="8">
         <v>26</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="8">
         <v>234.9329919422062</v>
       </c>
-      <c r="H115" s="11">
+      <c r="H115" s="8">
         <v>0.51700805779378811</v>
       </c>
-      <c r="I115" s="11">
+      <c r="I115" s="8">
         <v>8.9450248531089599E-2</v>
       </c>
-      <c r="K115" s="11">
+      <c r="K115" s="8">
         <v>42.500000000000007</v>
       </c>
-      <c r="L115" s="11">
+      <c r="L115" s="8">
         <v>237.01</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116"/>
-      <c r="F116" s="11">
+      <c r="F116" s="8">
         <v>27</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="8">
         <v>235.60843817727152</v>
       </c>
-      <c r="H116" s="11">
+      <c r="H116" s="8">
         <v>0.47156182272848923</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="8">
         <v>8.1587359432725243E-2</v>
       </c>
-      <c r="K116" s="11">
+      <c r="K116" s="8">
         <v>44.166666666666671</v>
       </c>
-      <c r="L116" s="11">
+      <c r="L116" s="8">
         <v>237.41</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117"/>
-      <c r="F117" s="11">
+      <c r="F117" s="8">
         <v>28</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="8">
         <v>236.28388441233682</v>
       </c>
-      <c r="H117" s="11">
+      <c r="H117" s="8">
         <v>10.436115587663181</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="8">
         <v>1.8056065450879053</v>
       </c>
-      <c r="K117" s="11">
+      <c r="K117" s="8">
         <v>45.833333333333336</v>
       </c>
-      <c r="L117" s="11">
+      <c r="L117" s="8">
         <v>238.72</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118"/>
-      <c r="F118" s="11">
+      <c r="F118" s="8">
         <v>29</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="8">
         <v>236.95933064740211</v>
       </c>
-      <c r="H118" s="11">
+      <c r="H118" s="8">
         <v>7.1806693525978744</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118" s="8">
         <v>1.2423648887608798</v>
       </c>
-      <c r="K118" s="11">
+      <c r="K118" s="8">
         <v>47.500000000000007</v>
       </c>
-      <c r="L118" s="11">
+      <c r="L118" s="8">
         <v>238.83</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119"/>
-      <c r="F119" s="11">
+      <c r="F119" s="8">
         <v>30</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="8">
         <v>237.63477688246741</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="8">
         <v>2.4452231175326062</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I119" s="8">
         <v>0.42306074785491543</v>
       </c>
-      <c r="K119" s="11">
+      <c r="K119" s="8">
         <v>49.166666666666671</v>
       </c>
-      <c r="L119" s="11">
+      <c r="L119" s="8">
         <v>238.83</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120"/>
-      <c r="F120" s="11">
+      <c r="F120" s="8">
         <v>31</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="8">
         <v>238.3102231175327</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="8">
         <v>0.51977688246731191</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120" s="8">
         <v>8.9929297264377428E-2</v>
       </c>
-      <c r="K120" s="11">
+      <c r="K120" s="8">
         <v>50.833333333333336</v>
       </c>
-      <c r="L120" s="11">
+      <c r="L120" s="8">
         <v>238.83</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121"/>
-      <c r="F121" s="11">
+      <c r="F121" s="8">
         <v>32</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="8">
         <v>238.98566935259799</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="8">
         <v>-0.15566935259798242</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="8">
         <v>-2.6933162972321189E-2</v>
       </c>
-      <c r="K121" s="11">
+      <c r="K121" s="8">
         <v>52.500000000000007</v>
       </c>
-      <c r="L121" s="11">
+      <c r="L121" s="8">
         <v>239.29</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122"/>
-      <c r="F122" s="11">
+      <c r="F122" s="8">
         <v>33</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="8">
         <v>239.66111558766329</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="8">
         <v>-0.83111558766327676</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="8">
         <v>-0.14379562320901981</v>
       </c>
-      <c r="K122" s="11">
+      <c r="K122" s="8">
         <v>54.166666666666671</v>
       </c>
-      <c r="L122" s="11">
+      <c r="L122" s="8">
         <v>239.37</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123"/>
-      <c r="F123" s="11">
+      <c r="F123" s="8">
         <v>34</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="8">
         <v>240.33656182272858</v>
       </c>
-      <c r="H123" s="11">
+      <c r="H123" s="8">
         <v>-4.7565618227285711</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="8">
         <v>-0.82295745836570089</v>
       </c>
-      <c r="K123" s="11">
+      <c r="K123" s="8">
         <v>55.833333333333336</v>
       </c>
-      <c r="L123" s="11">
+      <c r="L123" s="8">
         <v>239.74</v>
       </c>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C124"/>
-      <c r="F124" s="11">
+      <c r="F124" s="8">
         <v>35</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="8">
         <v>241.01200805779388</v>
       </c>
-      <c r="H124" s="11">
+      <c r="H124" s="8">
         <v>-2.2920080577938791</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="8">
         <v>-0.39655221483355729</v>
       </c>
-      <c r="K124" s="11">
+      <c r="K124" s="8">
         <v>57.500000000000007</v>
       </c>
-      <c r="L124" s="11">
+      <c r="L124" s="8">
         <v>240.08</v>
       </c>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C125"/>
-      <c r="F125" s="11">
+      <c r="F125" s="8">
         <v>36</v>
       </c>
-      <c r="G125" s="11">
+      <c r="G125" s="8">
         <v>241.68745429285917</v>
       </c>
-      <c r="H125" s="11">
+      <c r="H125" s="8">
         <v>-2.3174542928591677</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125" s="8">
         <v>-0.40095480008625844</v>
       </c>
-      <c r="K125" s="11">
+      <c r="K125" s="8">
         <v>59.166666666666671</v>
       </c>
-      <c r="L125" s="11">
+      <c r="L125" s="8">
         <v>241.2</v>
       </c>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C126"/>
-      <c r="F126" s="11">
+      <c r="F126" s="8">
         <v>37</v>
       </c>
-      <c r="G126" s="11">
+      <c r="G126" s="8">
         <v>242.36290052792447</v>
       </c>
-      <c r="H126" s="11">
+      <c r="H126" s="8">
         <v>0.27709947207551977</v>
       </c>
-      <c r="I126" s="11">
+      <c r="I126" s="8">
         <v>4.7942418442683661E-2</v>
       </c>
-      <c r="K126" s="11">
+      <c r="K126" s="8">
         <v>60.833333333333336</v>
       </c>
-      <c r="L126" s="11">
+      <c r="L126" s="8">
         <v>242.64</v>
       </c>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127"/>
-      <c r="F127" s="11">
+      <c r="F127" s="8">
         <v>38</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="8">
         <v>243.03834676298976</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="8">
         <v>0.80165323701024249</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="8">
         <v>0.13869818894567382</v>
       </c>
-      <c r="K127" s="11">
+      <c r="K127" s="8">
         <v>62.500000000000007</v>
       </c>
-      <c r="L127" s="11">
+      <c r="L127" s="8">
         <v>242.84</v>
       </c>
     </row>
-    <row r="128" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128"/>
-      <c r="F128" s="11">
+      <c r="F128" s="8">
         <v>39</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="8">
         <v>243.71379299805506</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="8">
         <v>0.12620700194494816</v>
       </c>
-      <c r="I128" s="11">
+      <c r="I128" s="8">
         <v>2.1835728708975186E-2</v>
       </c>
-      <c r="K128" s="11">
+      <c r="K128" s="8">
         <v>64.166666666666671</v>
       </c>
-      <c r="L128" s="11">
+      <c r="L128" s="8">
         <v>243.84</v>
       </c>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129"/>
-      <c r="F129" s="11">
+      <c r="F129" s="8">
         <v>40</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="8">
         <v>244.38923923312035</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="8">
         <v>-0.54923923312034617</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="8">
         <v>-9.5026731527723438E-2</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K129" s="8">
         <v>65.833333333333329</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L129" s="8">
         <v>243.84</v>
       </c>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130"/>
-      <c r="F130" s="11">
+      <c r="F130" s="8">
         <v>41</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="8">
         <v>245.06468546818564</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="8">
         <v>-5.3246854681856348</v>
       </c>
-      <c r="I130" s="11">
+      <c r="I130" s="8">
         <v>-0.92125148012501434</v>
       </c>
-      <c r="K130" s="11">
+      <c r="K130" s="8">
         <v>67.5</v>
       </c>
-      <c r="L130" s="11">
+      <c r="L130" s="8">
         <v>243.84</v>
       </c>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131"/>
-      <c r="F131" s="11">
+      <c r="F131" s="8">
         <v>42</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="8">
         <v>245.74013170325094</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="8">
         <v>-8.7301317032509473</v>
       </c>
-      <c r="I131" s="11">
+      <c r="I131" s="8">
         <v>-1.5104454152945013</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K131" s="8">
         <v>69.166666666666671</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L131" s="8">
         <v>244.14</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132"/>
-      <c r="F132" s="11">
+      <c r="F132" s="8">
         <v>43</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="8">
         <v>246.41557793831623</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="8">
         <v>-7.1255779383162405</v>
       </c>
-      <c r="I132" s="11">
+      <c r="I132" s="8">
         <v>-1.2328332371257966</v>
       </c>
-      <c r="K132" s="11">
+      <c r="K132" s="8">
         <v>70.833333333333329</v>
       </c>
-      <c r="L132" s="11">
+      <c r="L132" s="8">
         <v>246.72</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133"/>
-      <c r="F133" s="11">
+      <c r="F133" s="8">
         <v>44</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="8">
         <v>247.09102417338153</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="8">
         <v>3.9589758266184845</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I133" s="8">
         <v>0.68496296388642908</v>
       </c>
-      <c r="K133" s="11">
+      <c r="K133" s="8">
         <v>72.5</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L133" s="8">
         <v>247.14</v>
       </c>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134"/>
-      <c r="F134" s="11">
+      <c r="F134" s="8">
         <v>45</v>
       </c>
-      <c r="G134" s="11">
+      <c r="G134" s="8">
         <v>247.76647040844682</v>
       </c>
-      <c r="H134" s="11">
+      <c r="H134" s="8">
         <v>5.7335295915531788</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="8">
         <v>0.9919877247432537</v>
       </c>
-      <c r="K134" s="11">
+      <c r="K134" s="8">
         <v>74.166666666666671</v>
       </c>
-      <c r="L134" s="11">
+      <c r="L134" s="8">
         <v>248.48</v>
       </c>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135"/>
-      <c r="F135" s="11">
+      <c r="F135" s="8">
         <v>46</v>
       </c>
-      <c r="G135" s="11">
+      <c r="G135" s="8">
         <v>248.44191664351212</v>
       </c>
-      <c r="H135" s="11">
+      <c r="H135" s="8">
         <v>5.0580833564878844</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135" s="8">
         <v>0.87512526450655514</v>
       </c>
-      <c r="K135" s="11">
+      <c r="K135" s="8">
         <v>75.833333333333329</v>
       </c>
-      <c r="L135" s="11">
+      <c r="L135" s="8">
         <v>248.48</v>
       </c>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136"/>
-      <c r="F136" s="11">
+      <c r="F136" s="8">
         <v>47</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="8">
         <v>249.11736287857744</v>
       </c>
-      <c r="H136" s="11">
+      <c r="H136" s="8">
         <v>4.3826371214225617</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136" s="8">
         <v>0.7582628042698516</v>
       </c>
-      <c r="K136" s="11">
+      <c r="K136" s="8">
         <v>77.5</v>
       </c>
-      <c r="L136" s="11">
+      <c r="L136" s="8">
         <v>251.05</v>
       </c>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137"/>
-      <c r="F137" s="11">
+      <c r="F137" s="8">
         <v>48</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="8">
         <v>249.7928091136427</v>
       </c>
-      <c r="H137" s="11">
+      <c r="H137" s="8">
         <v>2.2871908863573083</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137" s="8">
         <v>0.39571877099119845</v>
       </c>
-      <c r="K137" s="11">
+      <c r="K137" s="8">
         <v>79.166666666666671</v>
       </c>
-      <c r="L137" s="11">
+      <c r="L137" s="8">
         <v>252.08</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138"/>
-      <c r="F138" s="11">
+      <c r="F138" s="8">
         <v>49</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="8">
         <v>250.46825534870803</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="8">
         <v>6.7517446512920003</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="8">
         <v>1.1681543990894852</v>
       </c>
-      <c r="K138" s="11">
+      <c r="K138" s="8">
         <v>80.833333333333329</v>
       </c>
-      <c r="L138" s="11">
+      <c r="L138" s="8">
         <v>252.54</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139"/>
-      <c r="F139" s="11">
+      <c r="F139" s="8">
         <v>50</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="8">
         <v>251.14370158377332</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139" s="8">
         <v>-4.003701583773335</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I139" s="8">
         <v>-0.6927011993605815</v>
       </c>
-      <c r="K139" s="11">
+      <c r="K139" s="8">
         <v>82.5</v>
       </c>
-      <c r="L139" s="11">
+      <c r="L139" s="8">
         <v>252.54</v>
       </c>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140"/>
-      <c r="F140" s="11">
+      <c r="F140" s="8">
         <v>51</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="8">
         <v>251.81914781883862</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140" s="8">
         <v>2.6808521811613844</v>
       </c>
-      <c r="I140" s="11">
+      <c r="I140" s="8">
         <v>0.46382815560612861</v>
       </c>
-      <c r="K140" s="11">
+      <c r="K140" s="8">
         <v>84.166666666666671</v>
       </c>
-      <c r="L140" s="11">
+      <c r="L140" s="8">
         <v>252.54</v>
       </c>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141"/>
-      <c r="F141" s="11">
+      <c r="F141" s="8">
         <v>52</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="8">
         <v>252.49459405390391</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="8">
         <v>4.5405946096082062E-2</v>
       </c>
-      <c r="I141" s="11">
+      <c r="I141" s="8">
         <v>7.8559184946084184E-3</v>
       </c>
-      <c r="K141" s="11">
+      <c r="K141" s="8">
         <v>85.833333333333329</v>
       </c>
-      <c r="L141" s="11">
+      <c r="L141" s="8">
         <v>252.54</v>
       </c>
     </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142"/>
-      <c r="F142" s="11">
+      <c r="F142" s="8">
         <v>53</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="8">
         <v>253.1700402889692</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142" s="8">
         <v>-0.63004028896921227</v>
       </c>
-      <c r="I142" s="11">
+      <c r="I142" s="8">
         <v>-0.10900654174209021</v>
       </c>
-      <c r="K142" s="11">
+      <c r="K142" s="8">
         <v>87.5</v>
       </c>
-      <c r="L142" s="11">
+      <c r="L142" s="8">
         <v>253.18</v>
       </c>
     </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143"/>
-      <c r="F143" s="11">
+      <c r="F143" s="8">
         <v>54</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="8">
         <v>253.8454865240345</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="8">
         <v>-1.3054865240345066</v>
       </c>
-      <c r="I143" s="11">
+      <c r="I143" s="8">
         <v>-0.22586900197878881</v>
       </c>
-      <c r="K143" s="11">
+      <c r="K143" s="8">
         <v>89.166666666666671</v>
       </c>
-      <c r="L143" s="11">
+      <c r="L143" s="8">
         <v>253.18</v>
       </c>
     </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144"/>
-      <c r="F144" s="11">
+      <c r="F144" s="8">
         <v>55</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="8">
         <v>254.52093275909979</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144" s="8">
         <v>-1.9809327590998009</v>
       </c>
-      <c r="I144" s="11">
+      <c r="I144" s="8">
         <v>-0.34273146221548745</v>
       </c>
-      <c r="K144" s="11">
+      <c r="K144" s="8">
         <v>90.833333333333329</v>
       </c>
-      <c r="L144" s="11">
+      <c r="L144" s="8">
         <v>253.5</v>
       </c>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C145"/>
-      <c r="F145" s="11">
+      <c r="F145" s="8">
         <v>56</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="8">
         <v>255.19637899416509</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145" s="8">
         <v>-2.0163789941650805</v>
       </c>
-      <c r="I145" s="11">
+      <c r="I145" s="8">
         <v>-0.34886419939101776</v>
       </c>
-      <c r="K145" s="11">
+      <c r="K145" s="8">
         <v>92.5</v>
       </c>
-      <c r="L145" s="11">
+      <c r="L145" s="8">
         <v>253.5</v>
       </c>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C146"/>
-      <c r="F146" s="11">
+      <c r="F146" s="8">
         <v>57</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="8">
         <v>255.87182522923038</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="8">
         <v>5.5681747707696161</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146" s="8">
         <v>0.96337882863045277</v>
       </c>
-      <c r="K146" s="11">
+      <c r="K146" s="8">
         <v>94.166666666666671</v>
       </c>
-      <c r="L146" s="11">
+      <c r="L146" s="8">
         <v>253.5</v>
       </c>
     </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C147"/>
-      <c r="F147" s="11">
+      <c r="F147" s="8">
         <v>58</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="8">
         <v>256.5472714642957</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147" s="8">
         <v>-3.3672714642956976</v>
       </c>
-      <c r="I147" s="11">
+      <c r="I147" s="8">
         <v>-0.58258911986441986</v>
       </c>
-      <c r="K147" s="11">
+      <c r="K147" s="8">
         <v>95.833333333333329</v>
       </c>
-      <c r="L147" s="11">
+      <c r="L147" s="8">
         <v>254.5</v>
       </c>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C148"/>
-      <c r="F148" s="11">
+      <c r="F148" s="8">
         <v>59</v>
       </c>
-      <c r="G148" s="11">
+      <c r="G148" s="8">
         <v>257.222717699361</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H148" s="8">
         <v>-8.742717699361009</v>
       </c>
-      <c r="I148" s="11">
+      <c r="I148" s="8">
         <v>-1.5126229838315577</v>
       </c>
-      <c r="K148" s="11">
+      <c r="K148" s="8">
         <v>97.5</v>
       </c>
-      <c r="L148" s="11">
+      <c r="L148" s="8">
         <v>257.22000000000003</v>
       </c>
     </row>
-    <row r="149" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C149"/>
-      <c r="F149" s="12">
+      <c r="F149" s="9">
         <v>60</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="9">
         <v>257.89816393442629</v>
       </c>
-      <c r="H149" s="12">
+      <c r="H149" s="9">
         <v>-9.4181639344263033</v>
       </c>
-      <c r="I149" s="12">
+      <c r="I149" s="9">
         <v>-1.6294854440682562</v>
       </c>
-      <c r="K149" s="12">
+      <c r="K149" s="9">
         <v>99.166666666666671</v>
       </c>
-      <c r="L149" s="12">
+      <c r="L149" s="9">
         <v>261.44</v>
       </c>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C150"/>
     </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C151"/>
     </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C152"/>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C153"/>
     </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C154"/>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C155"/>
     </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C156"/>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C157"/>
     </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C158"/>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C159"/>
     </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7684,7 +7684,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7695,7 +7695,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7706,7 +7706,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7717,7 +7717,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7728,7 +7728,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7739,7 +7739,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7750,7 +7750,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7761,7 +7761,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7772,7 +7772,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7783,7 +7783,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7794,7 +7794,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -7805,7 +7805,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -7816,7 +7816,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -7827,7 +7827,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -7838,7 +7838,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -7849,7 +7849,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -7860,7 +7860,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -7871,7 +7871,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -7882,7 +7882,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -7893,7 +7893,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -7904,7 +7904,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -7915,7 +7915,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -7926,7 +7926,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -7937,7 +7937,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -7948,7 +7948,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -7959,7 +7959,7 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -7970,7 +7970,7 @@
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -7981,7 +7981,7 @@
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -7992,7 +7992,7 @@
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -8003,7 +8003,7 @@
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -8014,7 +8014,7 @@
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8025,7 +8025,7 @@
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8036,7 +8036,7 @@
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -8047,7 +8047,7 @@
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -8058,7 +8058,7 @@
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -8069,7 +8069,7 @@
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -8080,7 +8080,7 @@
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -8091,7 +8091,7 @@
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -8102,7 +8102,7 @@
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -8113,7 +8113,7 @@
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -8124,7 +8124,7 @@
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -8135,7 +8135,7 @@
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -8146,7 +8146,7 @@
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -8157,7 +8157,7 @@
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -8168,7 +8168,7 @@
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -8179,7 +8179,7 @@
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -8190,7 +8190,7 @@
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -8201,7 +8201,7 @@
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -8212,7 +8212,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -8223,7 +8223,7 @@
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -8234,7 +8234,7 @@
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -8245,7 +8245,7 @@
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -8256,7 +8256,7 @@
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -8267,7 +8267,7 @@
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -8278,7 +8278,7 @@
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -8289,7 +8289,7 @@
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -8300,7 +8300,7 @@
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -8311,7 +8311,7 @@
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -8322,7 +8322,7 @@
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -8333,7 +8333,7 @@
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -8344,7 +8344,7 @@
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -8355,7 +8355,7 @@
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -8366,7 +8366,7 @@
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -8377,7 +8377,7 @@
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -8388,7 +8388,7 @@
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -8399,7 +8399,7 @@
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -8410,7 +8410,7 @@
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -8421,7 +8421,7 @@
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -8432,7 +8432,7 @@
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -8443,7 +8443,7 @@
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -8454,7 +8454,7 @@
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -8465,7 +8465,7 @@
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -8476,7 +8476,7 @@
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -8487,7 +8487,7 @@
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -8498,7 +8498,7 @@
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -8509,7 +8509,7 @@
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -8520,7 +8520,7 @@
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -8531,7 +8531,7 @@
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -8542,7 +8542,7 @@
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -8553,7 +8553,7 @@
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -8564,7 +8564,7 @@
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -8575,7 +8575,7 @@
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -8586,7 +8586,7 @@
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -8597,7 +8597,7 @@
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -8608,7 +8608,7 @@
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -8619,7 +8619,7 @@
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -8630,7 +8630,7 @@
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -8641,7 +8641,7 @@
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -8652,7 +8652,7 @@
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -8663,7 +8663,7 @@
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -8674,7 +8674,7 @@
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -8685,7 +8685,7 @@
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -8696,7 +8696,7 @@
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -8707,7 +8707,7 @@
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -8718,7 +8718,7 @@
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -8729,7 +8729,7 @@
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -8740,7 +8740,7 @@
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -8751,7 +8751,7 @@
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -8762,7 +8762,7 @@
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -8773,7 +8773,7 @@
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -8784,7 +8784,7 @@
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -8795,7 +8795,7 @@
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -8806,7 +8806,7 @@
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -8817,7 +8817,7 @@
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -8828,7 +8828,7 @@
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -8839,7 +8839,7 @@
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -8850,7 +8850,7 @@
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -8861,7 +8861,7 @@
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -8872,7 +8872,7 @@
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -8883,7 +8883,7 @@
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -8894,7 +8894,7 @@
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -8905,7 +8905,7 @@
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -8916,7 +8916,7 @@
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -8927,7 +8927,7 @@
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -8938,7 +8938,7 @@
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -8949,7 +8949,7 @@
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -8960,7 +8960,7 @@
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -8971,7 +8971,7 @@
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -8982,7 +8982,7 @@
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -8993,7 +8993,7 @@
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -9004,7 +9004,7 @@
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -9015,7 +9015,7 @@
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -9026,7 +9026,7 @@
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -9037,7 +9037,7 @@
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -9048,7 +9048,7 @@
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -9059,7 +9059,7 @@
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -9070,7 +9070,7 @@
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -9081,7 +9081,7 @@
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -9092,7 +9092,7 @@
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -9103,7 +9103,7 @@
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -9114,7 +9114,7 @@
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -9125,7 +9125,7 @@
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -9136,7 +9136,7 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -9147,7 +9147,7 @@
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -9158,7 +9158,7 @@
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -9169,7 +9169,7 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -9180,7 +9180,7 @@
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -9191,7 +9191,7 @@
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -9202,7 +9202,7 @@
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -9213,7 +9213,7 @@
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -9224,7 +9224,7 @@
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -9235,7 +9235,7 @@
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -9246,7 +9246,7 @@
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -9257,7 +9257,7 @@
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -9268,7 +9268,7 @@
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -9279,7 +9279,7 @@
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -9290,7 +9290,7 @@
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -9301,7 +9301,7 @@
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -9312,7 +9312,7 @@
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -9323,7 +9323,7 @@
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -9334,7 +9334,7 @@
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -9345,7 +9345,7 @@
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -9356,7 +9356,7 @@
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -9367,7 +9367,7 @@
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -9378,7 +9378,7 @@
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -9389,7 +9389,7 @@
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -9400,7 +9400,7 @@
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -9411,7 +9411,7 @@
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -9422,7 +9422,7 @@
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -9433,7 +9433,7 @@
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -9444,7 +9444,7 @@
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -9455,7 +9455,7 @@
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -9466,7 +9466,7 @@
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -9477,7 +9477,7 @@
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -9488,7 +9488,7 @@
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -9499,7 +9499,7 @@
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -9510,7 +9510,7 @@
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -9521,7 +9521,7 @@
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -9532,7 +9532,7 @@
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -9543,7 +9543,7 @@
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -9554,7 +9554,7 @@
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -9565,7 +9565,7 @@
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -9576,7 +9576,7 @@
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -9587,7 +9587,7 @@
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -9598,7 +9598,7 @@
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -9609,7 +9609,7 @@
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -9620,7 +9620,7 @@
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -9631,7 +9631,7 @@
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -9642,7 +9642,7 @@
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -9653,7 +9653,7 @@
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -9664,7 +9664,7 @@
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -9675,7 +9675,7 @@
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -9686,7 +9686,7 @@
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -9697,7 +9697,7 @@
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -9708,7 +9708,7 @@
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -9719,7 +9719,7 @@
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -9730,7 +9730,7 @@
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -9741,7 +9741,7 @@
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -9752,7 +9752,7 @@
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -9763,7 +9763,7 @@
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -9774,7 +9774,7 @@
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -9785,7 +9785,7 @@
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -9796,7 +9796,7 @@
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -9807,7 +9807,7 @@
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -9818,7 +9818,7 @@
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -9829,7 +9829,7 @@
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -9840,7 +9840,7 @@
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -9851,7 +9851,7 @@
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -9862,7 +9862,7 @@
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -9873,7 +9873,7 @@
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -9884,7 +9884,7 @@
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -9895,7 +9895,7 @@
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -9906,7 +9906,7 @@
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -9917,7 +9917,7 @@
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -9928,7 +9928,7 @@
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -9939,7 +9939,7 @@
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -9950,7 +9950,7 @@
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -9961,7 +9961,7 @@
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -9972,7 +9972,7 @@
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -9983,7 +9983,7 @@
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -9994,7 +9994,7 @@
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -10005,7 +10005,7 @@
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -10016,7 +10016,7 @@
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -10027,7 +10027,7 @@
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -10038,7 +10038,7 @@
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -10049,7 +10049,7 @@
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -10060,7 +10060,7 @@
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -10071,7 +10071,7 @@
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -10082,7 +10082,7 @@
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -10093,7 +10093,7 @@
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -10104,7 +10104,7 @@
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -10115,7 +10115,7 @@
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -10126,7 +10126,7 @@
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -10137,7 +10137,7 @@
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -10148,7 +10148,7 @@
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -10159,7 +10159,7 @@
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -10170,7 +10170,7 @@
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -10181,7 +10181,7 @@
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -10192,7 +10192,7 @@
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -10203,7 +10203,7 @@
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -10214,7 +10214,7 @@
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -10225,7 +10225,7 @@
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -10236,7 +10236,7 @@
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -10247,7 +10247,7 @@
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -10258,7 +10258,7 @@
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -10269,7 +10269,7 @@
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -10280,7 +10280,7 @@
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -10291,7 +10291,7 @@
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -10302,7 +10302,7 @@
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -10313,7 +10313,7 @@
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -10324,7 +10324,7 @@
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -10335,7 +10335,7 @@
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -10346,7 +10346,7 @@
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -10357,7 +10357,7 @@
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -10368,7 +10368,7 @@
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -10379,7 +10379,7 @@
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -10390,7 +10390,7 @@
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -10401,7 +10401,7 @@
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -10412,7 +10412,7 @@
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -10423,7 +10423,7 @@
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -10434,7 +10434,7 @@
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -10445,7 +10445,7 @@
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -10456,7 +10456,7 @@
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -10467,7 +10467,7 @@
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -10478,7 +10478,7 @@
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -10489,7 +10489,7 @@
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -10500,7 +10500,7 @@
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -10511,7 +10511,7 @@
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -10522,7 +10522,7 @@
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -10533,7 +10533,7 @@
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -10544,7 +10544,7 @@
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -10555,7 +10555,7 @@
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -10566,7 +10566,7 @@
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -10577,7 +10577,7 @@
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -10588,7 +10588,7 @@
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -10599,7 +10599,7 @@
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -10610,7 +10610,7 @@
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -10621,7 +10621,7 @@
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -10632,7 +10632,7 @@
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -10643,7 +10643,7 @@
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -10654,7 +10654,7 @@
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -10665,7 +10665,7 @@
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -10676,7 +10676,7 @@
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -10687,7 +10687,7 @@
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -10698,7 +10698,7 @@
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -10709,7 +10709,7 @@
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -10720,7 +10720,7 @@
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -10731,7 +10731,7 @@
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -10742,7 +10742,7 @@
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -10753,7 +10753,7 @@
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -10764,7 +10764,7 @@
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -10775,7 +10775,7 @@
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -10786,7 +10786,7 @@
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -10797,7 +10797,7 @@
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -10808,7 +10808,7 @@
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -10819,7 +10819,7 @@
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -10830,7 +10830,7 @@
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -10841,7 +10841,7 @@
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -10852,7 +10852,7 @@
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -10863,7 +10863,7 @@
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -10874,7 +10874,7 @@
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -10885,7 +10885,7 @@
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -10896,7 +10896,7 @@
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -10907,7 +10907,7 @@
       <c r="H468" s="6"/>
       <c r="I468" s="6"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -10918,7 +10918,7 @@
       <c r="H469" s="6"/>
       <c r="I469" s="6"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -10929,7 +10929,7 @@
       <c r="H470" s="6"/>
       <c r="I470" s="6"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -10940,7 +10940,7 @@
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -10951,7 +10951,7 @@
       <c r="H472" s="6"/>
       <c r="I472" s="6"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -10962,7 +10962,7 @@
       <c r="H473" s="6"/>
       <c r="I473" s="6"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -10973,7 +10973,7 @@
       <c r="H474" s="6"/>
       <c r="I474" s="6"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -10984,7 +10984,7 @@
       <c r="H475" s="6"/>
       <c r="I475" s="6"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -10995,7 +10995,7 @@
       <c r="H476" s="6"/>
       <c r="I476" s="6"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -11006,7 +11006,7 @@
       <c r="H477" s="6"/>
       <c r="I477" s="6"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -11017,7 +11017,7 @@
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -11028,7 +11028,7 @@
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -11039,7 +11039,7 @@
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -11050,7 +11050,7 @@
       <c r="H481" s="6"/>
       <c r="I481" s="6"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -11061,7 +11061,7 @@
       <c r="H482" s="6"/>
       <c r="I482" s="6"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -11072,7 +11072,7 @@
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -11083,7 +11083,7 @@
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -11094,7 +11094,7 @@
       <c r="H485" s="6"/>
       <c r="I485" s="6"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -11105,7 +11105,7 @@
       <c r="H486" s="6"/>
       <c r="I486" s="6"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -11116,7 +11116,7 @@
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -11127,7 +11127,7 @@
       <c r="H488" s="6"/>
       <c r="I488" s="6"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -11138,7 +11138,7 @@
       <c r="H489" s="6"/>
       <c r="I489" s="6"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -11149,7 +11149,7 @@
       <c r="H490" s="6"/>
       <c r="I490" s="6"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -11160,7 +11160,7 @@
       <c r="H491" s="6"/>
       <c r="I491" s="6"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -11171,7 +11171,7 @@
       <c r="H492" s="6"/>
       <c r="I492" s="6"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -11182,7 +11182,7 @@
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -11193,7 +11193,7 @@
       <c r="H494" s="6"/>
       <c r="I494" s="6"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -11204,7 +11204,7 @@
       <c r="H495" s="6"/>
       <c r="I495" s="6"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -11215,7 +11215,7 @@
       <c r="H496" s="6"/>
       <c r="I496" s="6"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -11226,7 +11226,7 @@
       <c r="H497" s="6"/>
       <c r="I497" s="6"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -11237,7 +11237,7 @@
       <c r="H498" s="6"/>
       <c r="I498" s="6"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -11248,7 +11248,7 @@
       <c r="H499" s="6"/>
       <c r="I499" s="6"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>

--- a/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
+++ b/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFDAAF0-39D7-45A4-AEF4-63C7D3F6E582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE668B-56AB-4B83-94D7-513107774C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="870" windowWidth="13380" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14010" yWindow="990" windowWidth="13380" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Регрессионная статистика</t>
   </si>
   <si>
-    <t>Таблица 3</t>
-  </si>
-  <si>
     <t>Коэффициенты</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>df = степень свободы = колличество независимость переенных. F - критерий оценки адекватности нашей модели данных. F знач - сравнение табличного значения от теоретического. R2 Коэффициент детерминации - квадрат коэффициента или индекса кор-реляции или Оценку качества построенной модели. а, в - мера взаимосвязи между зависимой и независимой переменной. коофициент в котором не учитывается ошибка. P - проверяется статистическая значимость параметров уравнения регрессии. Интервалы - диапазон в котором допустимо изменять коофициенты без потери адекватности модели.</t>
+  </si>
+  <si>
+    <t>Анализ коэффициентов регрессии</t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3247,7 @@
   <dimension ref="A1:AA500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>36</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
@@ -3860,7 +3860,7 @@
         <v>-10.15129841615834</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <f>FINV(0.05,J9,J10)</f>
@@ -4269,7 +4269,7 @@
         <v>4.0951317032846077</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -4322,22 +4322,22 @@
         <v>4.7196854682149478</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
       </c>
       <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>34</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>35</v>
-      </c>
-      <c r="N21" t="s">
-        <v>36</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -4567,7 +4567,7 @@
         <v>1.8679005279364276</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <f>TINV(0.05,J10)</f>
@@ -4619,7 +4619,7 @@
         <v>1.1924542928667847</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <f>TINV(0.05,J10)</f>
@@ -6034,17 +6034,17 @@
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>10</v>
@@ -6066,7 +6066,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6212,34 +6212,34 @@
       <c r="C81"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J81" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K81" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M81" s="10" t="s">
+      <c r="N81" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C82"/>
       <c r="F82" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82" s="8">
         <v>217.37138983050852</v>
@@ -6269,7 +6269,7 @@
     <row r="83" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C83"/>
       <c r="F83" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G83" s="9">
         <v>0.67544623506529589</v>
@@ -6308,10 +6308,10 @@
     <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87"/>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6320,19 +6320,19 @@
     <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89"/>
       <c r="F89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>3</v>

--- a/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
+++ b/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE668B-56AB-4B83-94D7-513107774C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88704F2E-65C5-4AB4-B54F-2E1FD7679656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="990" windowWidth="13380" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="120" windowWidth="15060" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3246,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
+++ b/ЭКОНОМЕТРИКА/Лабы/Лаба2(TSLA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88704F2E-65C5-4AB4-B54F-2E1FD7679656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4135CF4-AB34-42B6-B252-C88C689CF0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="120" windowWidth="15060" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3246,31 +3246,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N62" t="s">
         <v>1</v>
       </c>
@@ -6032,14 +6032,14 @@
         <v>73810</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>39</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -6063,23 +6063,23 @@
         <v>1.021405182655144E-14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C66"/>
       <c r="F66" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C68"/>
       <c r="F68" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C69"/>
       <c r="F69" s="8" t="s">
         <v>26</v>
@@ -6088,7 +6088,7 @@
         <v>0.89799871820424237</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C70"/>
       <c r="F70" s="8" t="s">
         <v>27</v>
@@ -6097,7 +6097,7 @@
         <v>0.80640169789646232</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C71"/>
       <c r="F71" s="8" t="s">
         <v>28</v>
@@ -6106,7 +6106,7 @@
         <v>0.80306379613605661</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C72"/>
       <c r="F72" s="8" t="s">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>5.8294525187019461</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73"/>
       <c r="F73" s="9" t="s">
         <v>29</v>
@@ -6124,16 +6124,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75"/>
       <c r="F75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C76"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
@@ -6152,7 +6152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C77"/>
       <c r="F77" s="8" t="s">
         <v>21</v>
@@ -6173,7 +6173,7 @@
         <v>2.4182541335190837E-22</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C78"/>
       <c r="F78" s="8" t="s">
         <v>22</v>
@@ -6190,7 +6190,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C79"/>
       <c r="F79" s="9" t="s">
         <v>23</v>
@@ -6205,10 +6205,10 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C80"/>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C81"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
@@ -6236,7 +6236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C82"/>
       <c r="F82" s="8" t="s">
         <v>43</v>
@@ -6266,7 +6266,7 @@
         <v>220.42235046297407</v>
       </c>
     </row>
-    <row r="83" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83"/>
       <c r="F83" s="9" t="s">
         <v>47</v>
@@ -6296,16 +6296,16 @@
         <v>0.76243328978035096</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C84"/>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C85"/>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C86"/>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C87"/>
       <c r="F87" t="s">
         <v>48</v>
@@ -6314,10 +6314,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88"/>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C89"/>
       <c r="F89" s="10" t="s">
         <v>39</v>
@@ -6338,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C90"/>
       <c r="F90" s="8">
         <v>1</v>
@@ -6359,7 +6359,7 @@
         <v>205.66</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C91"/>
       <c r="F91" s="8">
         <v>2</v>
@@ -6380,7 +6380,7 @@
         <v>209.98</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C92"/>
       <c r="F92" s="8">
         <v>3</v>
@@ -6401,7 +6401,7 @@
         <v>214.65</v>
       </c>
     </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C93"/>
       <c r="F93" s="8">
         <v>4</v>
@@ -6422,7 +6422,7 @@
         <v>214.65</v>
       </c>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C94"/>
       <c r="F94" s="8">
         <v>5</v>
@@ -6443,7 +6443,7 @@
         <v>214.65</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C95"/>
       <c r="F95" s="8">
         <v>6</v>
@@ -6464,7 +6464,7 @@
         <v>218.51</v>
       </c>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C96"/>
       <c r="F96" s="8">
         <v>7</v>
@@ -6485,7 +6485,7 @@
         <v>219.27</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97"/>
       <c r="F97" s="8">
         <v>8</v>
@@ -6506,7 +6506,7 @@
         <v>219.96</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98"/>
       <c r="F98" s="8">
         <v>9</v>
@@ -6527,7 +6527,7 @@
         <v>219.96</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99"/>
       <c r="F99" s="8">
         <v>10</v>
@@ -6548,7 +6548,7 @@
         <v>219.96</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100"/>
       <c r="F100" s="8">
         <v>11</v>
@@ -6569,7 +6569,7 @@
         <v>222.11</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101"/>
       <c r="F101" s="8">
         <v>12</v>
@@ -6590,7 +6590,7 @@
         <v>222.18</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102"/>
       <c r="F102" s="8">
         <v>13</v>
@@ -6611,7 +6611,7 @@
         <v>223.71</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C103"/>
       <c r="F103" s="8">
         <v>14</v>
@@ -6632,7 +6632,7 @@
         <v>233.59</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C104"/>
       <c r="F104" s="8">
         <v>15</v>
@@ -6653,7 +6653,7 @@
         <v>234.21</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C105"/>
       <c r="F105" s="8">
         <v>16</v>
@@ -6674,7 +6674,7 @@
         <v>234.21</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C106"/>
       <c r="F106" s="8">
         <v>17</v>
@@ -6695,7 +6695,7 @@
         <v>234.3</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C107"/>
       <c r="F107" s="8">
         <v>18</v>
@@ -6716,7 +6716,7 @@
         <v>234.3</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C108"/>
       <c r="F108" s="8">
         <v>19</v>
@@ -6737,7 +6737,7 @@
         <v>234.3</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C109"/>
       <c r="F109" s="8">
         <v>20</v>
@@ -6758,7 +6758,7 @@
         <v>235.45</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C110"/>
       <c r="F110" s="8">
         <v>21</v>
@@ -6779,7 +6779,7 @@
         <v>235.45</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C111"/>
       <c r="F111" s="8">
         <v>22</v>
@@ -6800,7 +6800,7 @@
         <v>235.45</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C112"/>
       <c r="F112" s="8">
         <v>23</v>
@@ -6821,7 +6821,7 @@
         <v>235.58</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C113"/>
       <c r="F113" s="8">
         <v>24</v>
@@ -6842,7 +6842,7 @@
         <v>235.6</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C114"/>
       <c r="F114" s="8">
         <v>25</v>
@@ -6863,7 +6863,7 @@
         <v>236.08</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C115"/>
       <c r="F115" s="8">
         <v>26</v>
@@ -6884,7 +6884,7 @@
         <v>237.01</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C116"/>
       <c r="F116" s="8">
         <v>27</v>
@@ -6905,7 +6905,7 @@
         <v>237.41</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C117"/>
       <c r="F117" s="8">
         <v>28</v>
@@ -6926,7 +6926,7 @@
         <v>238.72</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C118"/>
       <c r="F118" s="8">
         <v>29</v>
@@ -6947,7 +6947,7 @@
         <v>238.83</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C119"/>
       <c r="F119" s="8">
         <v>30</v>
@@ -6968,7 +6968,7 @@
         <v>238.83</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C120"/>
       <c r="F120" s="8">
         <v>31</v>
@@ -6989,7 +6989,7 @@
         <v>238.83</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C121"/>
       <c r="F121" s="8">
         <v>32</v>
@@ -7010,7 +7010,7 @@
         <v>239.29</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C122"/>
       <c r="F122" s="8">
         <v>33</v>
@@ -7031,7 +7031,7 @@
         <v>239.37</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C123"/>
       <c r="F123" s="8">
         <v>34</v>
@@ -7052,7 +7052,7 @@
         <v>239.74</v>
       </c>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C124"/>
       <c r="F124" s="8">
         <v>35</v>
@@ -7073,7 +7073,7 @@
         <v>240.08</v>
       </c>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C125"/>
       <c r="F125" s="8">
         <v>36</v>
@@ -7094,7 +7094,7 @@
         <v>241.2</v>
       </c>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C126"/>
       <c r="F126" s="8">
         <v>37</v>
@@ -7115,7 +7115,7 @@
         <v>242.64</v>
       </c>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C127"/>
       <c r="F127" s="8">
         <v>38</v>
@@ -7136,7 +7136,7 @@
         <v>242.84</v>
       </c>
     </row>
-    <row r="128" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128"/>
       <c r="F128" s="8">
         <v>39</v>
@@ -7157,7 +7157,7 @@
         <v>243.84</v>
       </c>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C129"/>
       <c r="F129" s="8">
         <v>40</v>
@@ -7178,7 +7178,7 @@
         <v>243.84</v>
       </c>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C130"/>
       <c r="F130" s="8">
         <v>41</v>
@@ -7199,7 +7199,7 @@
         <v>243.84</v>
       </c>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C131"/>
       <c r="F131" s="8">
         <v>42</v>
@@ -7220,7 +7220,7 @@
         <v>244.14</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C132"/>
       <c r="F132" s="8">
         <v>43</v>
@@ -7241,7 +7241,7 @@
         <v>246.72</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C133"/>
       <c r="F133" s="8">
         <v>44</v>
@@ -7262,7 +7262,7 @@
         <v>247.14</v>
       </c>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C134"/>
       <c r="F134" s="8">
         <v>45</v>
@@ -7283,7 +7283,7 @@
         <v>248.48</v>
       </c>
     </row>
-    <row r="135" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C135"/>
       <c r="F135" s="8">
         <v>46</v>
@@ -7304,7 +7304,7 @@
         <v>248.48</v>
       </c>
     </row>
-    <row r="136" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C136"/>
       <c r="F136" s="8">
         <v>47</v>
@@ -7325,7 +7325,7 @@
         <v>251.05</v>
       </c>
     </row>
-    <row r="137" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C137"/>
       <c r="F137" s="8">
         <v>48</v>
@@ -7346,7 +7346,7 @@
         <v>252.08</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C138"/>
       <c r="F138" s="8">
         <v>49</v>
@@ -7367,7 +7367,7 @@
         <v>252.54</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C139"/>
       <c r="F139" s="8">
         <v>50</v>
@@ -7388,7 +7388,7 @@
         <v>252.54</v>
       </c>
     </row>
-    <row r="140" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C140"/>
       <c r="F140" s="8">
         <v>51</v>
@@ -7409,7 +7409,7 @@
         <v>252.54</v>
       </c>
     </row>
-    <row r="141" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C141"/>
       <c r="F141" s="8">
         <v>52</v>
@@ -7430,7 +7430,7 @@
         <v>252.54</v>
       </c>
     </row>
-    <row r="142" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C142"/>
       <c r="F142" s="8">
         <v>53</v>
@@ -7451,7 +7451,7 @@
         <v>253.18</v>
       </c>
     </row>
-    <row r="143" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C143"/>
       <c r="F143" s="8">
         <v>54</v>
@@ -7472,7 +7472,7 @@
         <v>253.18</v>
       </c>
     </row>
-    <row r="144" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C144"/>
       <c r="F144" s="8">
         <v>55</v>
@@ -7493,7 +7493,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C145"/>
       <c r="F145" s="8">
         <v>56</v>
@@ -7514,7 +7514,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C146"/>
       <c r="F146" s="8">
         <v>57</v>
@@ -7535,7 +7535,7 @@
         <v>253.5</v>
       </c>
     </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C147"/>
       <c r="F147" s="8">
         <v>58</v>
@@ -7556,7 +7556,7 @@
         <v>254.5</v>
       </c>
     </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C148"/>
       <c r="F148" s="8">
         <v>59</v>
@@ -7577,7 +7577,7 @@
         <v>257.22000000000003</v>
       </c>
     </row>
-    <row r="149" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C149"/>
       <c r="F149" s="9">
         <v>60</v>
@@ -7598,82 +7598,82 @@
         <v>261.44</v>
       </c>
     </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C150"/>
     </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C151"/>
     </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C152"/>
     </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C153"/>
     </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C154"/>
     </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C155"/>
     </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C156"/>
     </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C157"/>
     </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C158"/>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C159"/>
     </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C160"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C161"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C162"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C163"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C164"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C165"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C166"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C167"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C168"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C169"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C170"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C171"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C172"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C173"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C174"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7684,7 +7684,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7695,7 +7695,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7706,7 +7706,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7717,7 +7717,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7728,7 +7728,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7739,7 +7739,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7750,7 +7750,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7761,7 +7761,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7772,7 +7772,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7783,7 +7783,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7794,7 +7794,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -7805,7 +7805,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -7816,7 +7816,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -7827,7 +7827,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -7838,7 +7838,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -7849,7 +7849,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -7860,7 +7860,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -7871,7 +7871,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -7882,7 +7882,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -7893,7 +7893,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -7904,7 +7904,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -7915,7 +7915,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -7926,7 +7926,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -7937,7 +7937,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -7948,7 +7948,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -7959,7 +7959,7 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -7970,7 +7970,7 @@
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -7981,7 +7981,7 @@
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -7992,7 +7992,7 @@
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -8003,7 +8003,7 @@
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -8014,7 +8014,7 @@
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8025,7 +8025,7 @@
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8036,7 +8036,7 @@
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -8047,7 +8047,7 @@
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -8058,7 +8058,7 @@
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -8069,7 +8069,7 @@
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -8080,7 +8080,7 @@
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -8091,7 +8091,7 @@
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -8102,7 +8102,7 @@
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -8113,7 +8113,7 @@
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -8124,7 +8124,7 @@
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -8135,7 +8135,7 @@
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -8146,7 +8146,7 @@
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -8157,7 +8157,7 @@
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -8168,7 +8168,7 @@
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -8179,7 +8179,7 @@
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -8190,7 +8190,7 @@
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -8201,7 +8201,7 @@
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -8212,7 +8212,7 @@
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -8223,7 +8223,7 @@
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -8234,7 +8234,7 @@
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -8245,7 +8245,7 @@
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -8256,7 +8256,7 @@
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -8267,7 +8267,7 @@
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -8278,7 +8278,7 @@
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -8289,7 +8289,7 @@
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -8300,7 +8300,7 @@
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -8311,7 +8311,7 @@
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -8322,7 +8322,7 @@
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -8333,7 +8333,7 @@
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -8344,7 +8344,7 @@
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -8355,7 +8355,7 @@
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -8366,7 +8366,7 @@
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -8377,7 +8377,7 @@
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -8388,7 +8388,7 @@
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -8399,7 +8399,7 @@
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -8410,7 +8410,7 @@
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -8421,7 +8421,7 @@
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -8432,7 +8432,7 @@
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -8443,7 +8443,7 @@
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -8454,7 +8454,7 @@
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -8465,7 +8465,7 @@
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -8476,7 +8476,7 @@
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -8487,7 +8487,7 @@
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -8498,7 +8498,7 @@
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -8509,7 +8509,7 @@
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -8520,7 +8520,7 @@
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -8531,7 +8531,7 @@
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -8542,7 +8542,7 @@
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -8553,7 +8553,7 @@
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -8564,7 +8564,7 @@
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -8575,7 +8575,7 @@
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -8586,7 +8586,7 @@
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -8597,7 +8597,7 @@
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -8608,7 +8608,7 @@
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -8619,7 +8619,7 @@
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -8630,7 +8630,7 @@
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -8641,7 +8641,7 @@
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -8652,7 +8652,7 @@
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -8663,7 +8663,7 @@
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -8674,7 +8674,7 @@
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -8685,7 +8685,7 @@
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -8696,7 +8696,7 @@
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -8707,7 +8707,7 @@
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -8718,7 +8718,7 @@
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -8729,7 +8729,7 @@
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -8740,7 +8740,7 @@
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -8751,7 +8751,7 @@
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -8762,7 +8762,7 @@
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -8773,7 +8773,7 @@
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -8784,7 +8784,7 @@
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -8795,7 +8795,7 @@
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -8806,7 +8806,7 @@
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -8817,7 +8817,7 @@
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -8828,7 +8828,7 @@
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -8839,7 +8839,7 @@
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -8850,7 +8850,7 @@
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -8861,7 +8861,7 @@
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -8872,7 +8872,7 @@
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -8883,7 +8883,7 @@
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -8894,7 +8894,7 @@
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -8905,7 +8905,7 @@
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -8916,7 +8916,7 @@
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -8927,7 +8927,7 @@
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -8938,7 +8938,7 @@
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -8949,7 +8949,7 @@
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -8960,7 +8960,7 @@
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -8971,7 +8971,7 @@
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -8982,7 +8982,7 @@
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -8993,7 +8993,7 @@
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -9004,7 +9004,7 @@
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -9015,7 +9015,7 @@
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -9026,7 +9026,7 @@
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -9037,7 +9037,7 @@
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -9048,7 +9048,7 @@
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -9059,7 +9059,7 @@
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -9070,7 +9070,7 @@
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -9081,7 +9081,7 @@
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -9092,7 +9092,7 @@
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -9103,7 +9103,7 @@
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -9114,7 +9114,7 @@
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -9125,7 +9125,7 @@
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -9136,7 +9136,7 @@
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -9147,7 +9147,7 @@
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -9158,7 +9158,7 @@
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -9169,7 +9169,7 @@
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -9180,7 +9180,7 @@
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -9191,7 +9191,7 @@
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -9202,7 +9202,7 @@
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -9213,7 +9213,7 @@
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -9224,7 +9224,7 @@
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -9235,7 +9235,7 @@
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -9246,7 +9246,7 @@
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -9257,7 +9257,7 @@
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -9268,7 +9268,7 @@
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -9279,7 +9279,7 @@
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -9290,7 +9290,7 @@
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -9301,7 +9301,7 @@
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -9312,7 +9312,7 @@
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -9323,7 +9323,7 @@
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -9334,7 +9334,7 @@
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -9345,7 +9345,7 @@
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -9356,7 +9356,7 @@
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -9367,7 +9367,7 @@
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -9378,7 +9378,7 @@
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -9389,7 +9389,7 @@
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -9400,7 +9400,7 @@
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -9411,7 +9411,7 @@
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -9422,7 +9422,7 @@
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -9433,7 +9433,7 @@
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -9444,7 +9444,7 @@
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -9455,7 +9455,7 @@
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -9466,7 +9466,7 @@
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -9477,7 +9477,7 @@
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -9488,7 +9488,7 @@
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -9499,7 +9499,7 @@
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -9510,7 +9510,7 @@
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -9521,7 +9521,7 @@
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -9532,7 +9532,7 @@
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -9543,7 +9543,7 @@
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -9554,7 +9554,7 @@
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -9565,7 +9565,7 @@
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -9576,7 +9576,7 @@
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -9587,7 +9587,7 @@
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -9598,7 +9598,7 @@
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -9609,7 +9609,7 @@
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -9620,7 +9620,7 @@
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -9631,7 +9631,7 @@
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -9642,7 +9642,7 @@
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -9653,7 +9653,7 @@
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -9664,7 +9664,7 @@
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -9675,7 +9675,7 @@
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -9686,7 +9686,7 @@
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -9697,7 +9697,7 @@
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -9708,7 +9708,7 @@
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -9719,7 +9719,7 @@
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -9730,7 +9730,7 @@
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -9741,7 +9741,7 @@
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -9752,7 +9752,7 @@
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -9763,7 +9763,7 @@
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -9774,7 +9774,7 @@
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -9785,7 +9785,7 @@
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -9796,7 +9796,7 @@
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -9807,7 +9807,7 @@
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -9818,7 +9818,7 @@
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -9829,7 +9829,7 @@
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -9840,7 +9840,7 @@
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -9851,7 +9851,7 @@
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -9862,7 +9862,7 @@
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -9873,7 +9873,7 @@
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -9884,7 +9884,7 @@
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -9895,7 +9895,7 @@
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -9906,7 +9906,7 @@
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -9917,7 +9917,7 @@
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -9928,7 +9928,7 @@
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -9939,7 +9939,7 @@
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -9950,7 +9950,7 @@
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -9961,7 +9961,7 @@
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -9972,7 +9972,7 @@
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -9983,7 +9983,7 @@
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -9994,7 +9994,7 @@
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -10005,7 +10005,7 @@
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -10016,7 +10016,7 @@
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -10027,7 +10027,7 @@
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -10038,7 +10038,7 @@
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -10049,7 +10049,7 @@
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -10060,7 +10060,7 @@
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -10071,7 +10071,7 @@
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -10082,7 +10082,7 @@
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -10093,7 +10093,7 @@
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -10104,7 +10104,7 @@
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -10115,7 +10115,7 @@
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -10126,7 +10126,7 @@
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -10137,7 +10137,7 @@
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -10148,7 +10148,7 @@
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -10159,7 +10159,7 @@
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -10170,7 +10170,7 @@
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -10181,7 +10181,7 @@
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -10192,7 +10192,7 @@
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -10203,7 +10203,7 @@
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -10214,7 +10214,7 @@
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -10225,7 +10225,7 @@
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -10236,7 +10236,7 @@
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -10247,7 +10247,7 @@
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -10258,7 +10258,7 @@
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -10269,7 +10269,7 @@
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -10280,7 +10280,7 @@
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -10291,7 +10291,7 @@
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -10302,7 +10302,7 @@
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -10313,7 +10313,7 @@
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -10324,7 +10324,7 @@
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -10335,7 +10335,7 @@
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -10346,7 +10346,7 @@
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -10357,7 +10357,7 @@
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -10368,7 +10368,7 @@
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -10379,7 +10379,7 @@
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -10390,7 +10390,7 @@
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -10401,7 +10401,7 @@
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -10412,7 +10412,7 @@
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -10423,7 +10423,7 @@
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -10434,7 +10434,7 @@
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -10445,7 +10445,7 @@
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -10456,7 +10456,7 @@
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -10467,7 +10467,7 @@
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -10478,7 +10478,7 @@
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -10489,7 +10489,7 @@
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -10500,7 +10500,7 @@
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -10511,7 +10511,7 @@
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -10522,7 +10522,7 @@
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -10533,7 +10533,7 @@
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -10544,7 +10544,7 @@
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -10555,7 +10555,7 @@
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -10566,7 +10566,7 @@
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -10577,7 +10577,7 @@
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -10588,7 +10588,7 @@
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -10599,7 +10599,7 @@
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -10610,7 +10610,7 @@
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -10621,7 +10621,7 @@
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -10632,7 +10632,7 @@
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -10643,7 +10643,7 @@
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -10654,7 +10654,7 @@
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -10665,7 +10665,7 @@
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -10676,7 +10676,7 @@
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -10687,7 +10687,7 @@
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -10698,7 +10698,7 @@
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -10709,7 +10709,7 @@
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -10720,7 +10720,7 @@
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -10731,7 +10731,7 @@
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -10742,7 +10742,7 @@
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -10753,7 +10753,7 @@
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -10764,7 +10764,7 @@
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -10775,7 +10775,7 @@
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -10786,7 +10786,7 @@
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -10797,7 +10797,7 @@
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -10808,7 +10808,7 @@
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -10819,7 +10819,7 @@
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -10830,7 +10830,7 @@
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -10841,7 +10841,7 @@
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -10852,7 +10852,7 @@
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -10863,7 +10863,7 @@
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -10874,7 +10874,7 @@
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -10885,7 +10885,7 @@
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -10896,7 +10896,7 @@
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -10907,7 +10907,7 @@
       <c r="H468" s="6"/>
       <c r="I468" s="6"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -10918,7 +10918,7 @@
       <c r="H469" s="6"/>
       <c r="I469" s="6"/>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -10929,7 +10929,7 @@
       <c r="H470" s="6"/>
       <c r="I470" s="6"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -10940,7 +10940,7 @@
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -10951,7 +10951,7 @@
       <c r="H472" s="6"/>
       <c r="I472" s="6"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -10962,7 +10962,7 @@
       <c r="H473" s="6"/>
       <c r="I473" s="6"/>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -10973,7 +10973,7 @@
       <c r="H474" s="6"/>
       <c r="I474" s="6"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -10984,7 +10984,7 @@
       <c r="H475" s="6"/>
       <c r="I475" s="6"/>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -10995,7 +10995,7 @@
       <c r="H476" s="6"/>
       <c r="I476" s="6"/>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -11006,7 +11006,7 @@
       <c r="H477" s="6"/>
       <c r="I477" s="6"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -11017,7 +11017,7 @@
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -11028,7 +11028,7 @@
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -11039,7 +11039,7 @@
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -11050,7 +11050,7 @@
       <c r="H481" s="6"/>
       <c r="I481" s="6"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -11061,7 +11061,7 @@
       <c r="H482" s="6"/>
       <c r="I482" s="6"/>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -11072,7 +11072,7 @@
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -11083,7 +11083,7 @@
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -11094,7 +11094,7 @@
       <c r="H485" s="6"/>
       <c r="I485" s="6"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -11105,7 +11105,7 @@
       <c r="H486" s="6"/>
       <c r="I486" s="6"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -11116,7 +11116,7 @@
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -11127,7 +11127,7 @@
       <c r="H488" s="6"/>
       <c r="I488" s="6"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -11138,7 +11138,7 @@
       <c r="H489" s="6"/>
       <c r="I489" s="6"/>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -11149,7 +11149,7 @@
       <c r="H490" s="6"/>
       <c r="I490" s="6"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -11160,7 +11160,7 @@
       <c r="H491" s="6"/>
       <c r="I491" s="6"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -11171,7 +11171,7 @@
       <c r="H492" s="6"/>
       <c r="I492" s="6"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -11182,7 +11182,7 @@
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -11193,7 +11193,7 @@
       <c r="H494" s="6"/>
       <c r="I494" s="6"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -11204,7 +11204,7 @@
       <c r="H495" s="6"/>
       <c r="I495" s="6"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -11215,7 +11215,7 @@
       <c r="H496" s="6"/>
       <c r="I496" s="6"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -11226,7 +11226,7 @@
       <c r="H497" s="6"/>
       <c r="I497" s="6"/>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -11237,7 +11237,7 @@
       <c r="H498" s="6"/>
       <c r="I498" s="6"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -11248,7 +11248,7 @@
       <c r="H499" s="6"/>
       <c r="I499" s="6"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
